--- a/reference_data.xlsx
+++ b/reference_data.xlsx
@@ -5,23 +5,32 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladimir\Desktop\FD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladimir\Documents\GitHub\SVV_FD_B34\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83370908-AA1B-4A96-8DEF-BFC2A1D7EF36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709DFE4A-E012-4337-B5CF-40D51EBB779C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="77">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -203,46 +212,55 @@
     <t>F. used</t>
   </si>
   <si>
-    <t>Hans</t>
-  </si>
-  <si>
-    <t>Chipke</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Paula</t>
-  </si>
-  <si>
-    <t>Lorenza</t>
-  </si>
-  <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>Marta</t>
+    <t>fede</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>willem</t>
+  </si>
+  <si>
+    <t>boris</t>
+  </si>
+  <si>
+    <t>quiten</t>
+  </si>
+  <si>
+    <t>luuk</t>
+  </si>
+  <si>
+    <t>ruben</t>
+  </si>
+  <si>
+    <t>hans</t>
+  </si>
+  <si>
+    <t>xander</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>10.2</t>
   </si>
   <si>
     <t>3R</t>
   </si>
   <si>
-    <t>cockpit</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>5th March 2020</t>
+    <t>Cockpit</t>
   </si>
 </sst>
 </file>
@@ -252,7 +270,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,12 +285,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -295,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -315,12 +327,6 @@
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1086,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1108,29 +1114,25 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>73</v>
+      <c r="D3" s="6">
+        <v>43896</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="3">
-        <v>0.43055555555555558</v>
-      </c>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="3">
-        <v>0.4861111111111111</v>
-      </c>
+      <c r="H4" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1151,7 +1153,7 @@
         <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H8" s="2">
         <v>80</v>
@@ -1162,7 +1164,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H9" s="2">
         <v>102</v>
@@ -1173,10 +1175,10 @@
         <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H10" s="2">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1184,10 +1186,10 @@
         <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H11" s="2">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1195,10 +1197,10 @@
         <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H12" s="2">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1206,10 +1208,10 @@
         <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H13" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1220,7 +1222,7 @@
         <v>64</v>
       </c>
       <c r="H14" s="2">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1228,10 +1230,10 @@
         <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H15" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1239,10 +1241,10 @@
         <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H16" s="2">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1250,7 +1252,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="2">
-        <v>4100</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1332,29 +1334,29 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>1.3078703703703703E-2</v>
+        <v>1.2499999999999999E-2</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
-        <v>5030</v>
+        <v>9000</v>
       </c>
       <c r="E28" s="2">
-        <v>251</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1.6</v>
+        <v>250</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="G28" s="2">
-        <v>770</v>
+        <v>717</v>
       </c>
       <c r="H28" s="2">
-        <v>806</v>
+        <v>766</v>
       </c>
       <c r="I28" s="2">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="J28" s="2">
-        <v>10.199999999999999</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1362,29 +1364,29 @@
         <v>2</v>
       </c>
       <c r="B29" s="7">
-        <v>1.4560185185185183E-2</v>
+        <v>1.383101851851852E-2</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
-        <v>5030</v>
+        <v>9000</v>
       </c>
       <c r="E29" s="2">
-        <v>221</v>
-      </c>
-      <c r="F29" s="2">
-        <v>2.4</v>
+        <v>222</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="G29" s="2">
-        <v>638</v>
+        <v>594</v>
       </c>
       <c r="H29" s="2">
-        <v>670</v>
+        <v>631</v>
       </c>
       <c r="I29" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="J29" s="2">
-        <v>7.8</v>
+        <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1392,29 +1394,29 @@
         <v>3</v>
       </c>
       <c r="B30" s="7">
-        <v>1.6180555555555556E-2</v>
+        <v>1.4814814814814814E-2</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
-        <v>5020</v>
+        <v>8990</v>
       </c>
       <c r="E30" s="2">
-        <v>190</v>
-      </c>
-      <c r="F30" s="2">
-        <v>3.7</v>
+        <v>193</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="G30" s="2">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="H30" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="I30" s="2">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="J30" s="2">
-        <v>5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1422,29 +1424,29 @@
         <v>4</v>
       </c>
       <c r="B31" s="7">
-        <v>1.7708333333333333E-2</v>
+        <v>1.6331018518518519E-2</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
-        <v>5040</v>
+        <v>8990</v>
       </c>
       <c r="E31" s="2">
-        <v>161</v>
-      </c>
-      <c r="F31" s="2">
-        <v>5.6</v>
+        <v>159</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G31" s="2">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="H31" s="2">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="I31" s="2">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="J31" s="2">
-        <v>4</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1452,29 +1454,29 @@
         <v>5</v>
       </c>
       <c r="B32" s="7">
-        <v>1.9259259259259261E-2</v>
+        <v>1.7800925925925925E-2</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
-        <v>5040</v>
+        <v>9010</v>
       </c>
       <c r="E32" s="2">
-        <v>134</v>
-      </c>
-      <c r="F32" s="2">
-        <v>8.5</v>
+        <v>129</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="G32" s="2">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="H32" s="2">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="I32" s="2">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="J32" s="2">
-        <v>2.2000000000000002</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1482,29 +1484,29 @@
         <v>6</v>
       </c>
       <c r="B33" s="7">
-        <v>2.0405092592592593E-2</v>
+        <v>1.909722222222222E-2</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
-        <v>5030</v>
+        <v>8990</v>
       </c>
       <c r="E33" s="2">
-        <v>121</v>
-      </c>
-      <c r="F33" s="2">
-        <v>10.4</v>
+        <v>117</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="G33" s="2">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="H33" s="2">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="I33" s="2">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="J33" s="2">
-        <v>1.5</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1798,38 +1800,38 @@
         <v>1</v>
       </c>
       <c r="B59" s="4">
-        <v>2.4247685185185181E-2</v>
+        <v>2.162037037037037E-2</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2">
-        <v>6510</v>
+        <v>9010</v>
       </c>
       <c r="E59" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F59" s="2">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="G59" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="2">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" s="2">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="K59" s="2">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="L59" s="2">
-        <v>636</v>
+        <v>578</v>
       </c>
       <c r="M59" s="2">
-        <v>1.8</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -1837,38 +1839,38 @@
         <v>2</v>
       </c>
       <c r="B60" s="4">
-        <v>2.5104166666666664E-2</v>
+        <v>2.238425925925926E-2</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2">
-        <v>6780</v>
+        <v>9230</v>
       </c>
       <c r="E60" s="2">
         <v>150</v>
       </c>
       <c r="F60" s="2">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="G60" s="2">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="H60" s="2">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I60" s="2">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="J60" s="2">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="K60" s="2">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="L60" s="2">
-        <v>662</v>
+        <v>592</v>
       </c>
       <c r="M60" s="2">
-        <v>0.2</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -1876,38 +1878,38 @@
         <v>3</v>
       </c>
       <c r="B61" s="4">
-        <v>2.6689814814814816E-2</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2">
-        <v>7200</v>
+        <v>9450</v>
       </c>
       <c r="E61" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F61" s="2">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="G61" s="2">
-        <v>-1</v>
+        <v>-0.7</v>
       </c>
       <c r="H61" s="2">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I61" s="2">
-        <v>-34</v>
+        <v>-21</v>
       </c>
       <c r="J61" s="2">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="K61" s="2">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="L61" s="2">
-        <v>697</v>
+        <v>616</v>
       </c>
       <c r="M61" s="2">
-        <v>-0.5</v>
+        <v>-8.1999999999999993</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -1915,38 +1917,38 @@
         <v>4</v>
       </c>
       <c r="B62" s="4">
-        <v>2.7766203703703706E-2</v>
+        <v>2.4305555555555556E-2</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2">
-        <v>7540</v>
+        <v>9800</v>
       </c>
       <c r="E62" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F62" s="2">
-        <v>8.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G62" s="2">
         <v>-1.3</v>
       </c>
       <c r="H62" s="2">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I62" s="2">
-        <v>-45</v>
+        <v>-40</v>
       </c>
       <c r="J62" s="2">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="K62" s="2">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="L62" s="2">
-        <v>721</v>
+        <v>639</v>
       </c>
       <c r="M62" s="2">
-        <v>-1.8</v>
+        <v>-9.5</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -1954,38 +1956,38 @@
         <v>5</v>
       </c>
       <c r="B63" s="4">
-        <v>2.8749999999999998E-2</v>
+        <v>2.6388888888888889E-2</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2">
-        <v>6900</v>
+        <v>8840</v>
       </c>
       <c r="E63" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F63" s="2">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="G63" s="2">
         <v>0.4</v>
       </c>
       <c r="H63" s="2">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I63" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J63" s="2">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="K63" s="2">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="L63" s="2">
-        <v>745</v>
+        <v>666</v>
       </c>
       <c r="M63" s="2">
-        <v>1.5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -1993,38 +1995,38 @@
         <v>6</v>
       </c>
       <c r="B64" s="4">
-        <v>2.9513888888888892E-2</v>
+        <v>2.6388888888888889E-2</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2">
-        <v>6540</v>
+        <v>8500</v>
       </c>
       <c r="E64" s="2">
         <v>180</v>
       </c>
       <c r="F64" s="2">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="G64" s="2">
         <v>0.7</v>
       </c>
       <c r="H64" s="2">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I64" s="2">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J64" s="2">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="K64" s="2">
-        <v>505</v>
+        <v>465</v>
       </c>
       <c r="L64" s="2">
-        <v>764</v>
+        <v>684</v>
       </c>
       <c r="M64" s="2">
-        <v>2.5</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -2032,38 +2034,38 @@
         <v>7</v>
       </c>
       <c r="B65" s="4">
-        <v>3.0740740740740739E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2">
-        <v>6050</v>
+        <v>8000</v>
       </c>
       <c r="E65" s="2">
         <v>190</v>
       </c>
       <c r="F65" s="2">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="G65" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H65" s="2">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I65" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J65" s="2">
-        <v>469</v>
+        <v>430</v>
       </c>
       <c r="K65" s="2">
-        <v>515</v>
+        <v>474</v>
       </c>
       <c r="L65" s="2">
-        <v>790</v>
+        <v>708</v>
       </c>
       <c r="M65" s="2">
-        <v>4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -2081,7 +2083,7 @@
         <v>56</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -2089,13 +2091,13 @@
         <v>57</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E71" t="s">
         <v>34</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -2182,34 +2184,38 @@
         <v>1</v>
       </c>
       <c r="B75" s="4">
-        <v>3.3043981481481487E-2</v>
+        <v>2.8472222222222222E-2</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2">
-        <v>6590</v>
+        <v>8330</v>
       </c>
       <c r="E75" s="2">
-        <v>160</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>72</v>
+        <v>159</v>
+      </c>
+      <c r="F75" s="2">
+        <v>5</v>
       </c>
       <c r="G75" s="2">
         <v>0.1</v>
       </c>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
+      <c r="H75" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="I75" s="2">
+        <v>1</v>
+      </c>
       <c r="J75" s="2">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="K75" s="2">
-        <v>491</v>
+        <v>464</v>
       </c>
       <c r="L75" s="2">
-        <v>846</v>
+        <v>734</v>
       </c>
       <c r="M75" s="2">
-        <v>1.35</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -2217,34 +2223,38 @@
         <v>2</v>
       </c>
       <c r="B76" s="4">
-        <v>3.4155092592592591E-2</v>
+        <v>2.9861111111111113E-2</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2">
-        <v>6630</v>
+        <v>8360</v>
       </c>
       <c r="E76" s="2">
-        <v>160</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>71</v>
+        <v>159</v>
+      </c>
+      <c r="F76" s="2">
+        <v>5.2</v>
       </c>
       <c r="G76" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
+        <v>-0.6</v>
+      </c>
+      <c r="H76" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="I76" s="2">
+        <v>-32</v>
+      </c>
       <c r="J76" s="2">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="K76" s="2">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="L76" s="2">
-        <v>871</v>
+        <v>758</v>
       </c>
       <c r="M76" s="2">
-        <v>1.5</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -2284,19 +2294,19 @@
         <v>37</v>
       </c>
       <c r="D83" s="4">
-        <v>3.5011574074074077E-2</v>
+        <v>3.4027777777777775E-2</v>
       </c>
       <c r="E83" t="s">
         <v>38</v>
       </c>
       <c r="G83" s="4">
-        <v>3.9444444444444442E-2</v>
+        <v>3.2638888888888891E-2</v>
       </c>
       <c r="H83" t="s">
         <v>39</v>
       </c>
       <c r="J83" s="4">
-        <v>3.7453703703703704E-2</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -2304,19 +2314,19 @@
         <v>40</v>
       </c>
       <c r="D84" s="4">
-        <v>3.8333333333333337E-2</v>
+        <v>3.1944444444444449E-2</v>
       </c>
       <c r="E84" t="s">
         <v>41</v>
       </c>
       <c r="G84" s="4">
-        <v>4.0254629629629633E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="H84" t="s">
         <v>42</v>
       </c>
       <c r="J84" s="4">
-        <v>4.2708333333333327E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2410,422 +2420,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A2F9A1-4214-48DB-B03B-0B83A49B7C27}">
-  <dimension ref="A1:B50"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="8">
-        <v>100</v>
-      </c>
-      <c r="B1" s="8">
-        <v>298.16000000000003</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>200</v>
-      </c>
-      <c r="B2" s="8">
-        <v>591.17999999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>300</v>
-      </c>
-      <c r="B3" s="8">
-        <v>879.08</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>400</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1165.42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>500</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1448.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>600</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1732.53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>700</v>
-      </c>
-      <c r="B7" s="8">
-        <v>2014.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>800</v>
-      </c>
-      <c r="B8" s="8">
-        <v>2298.84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>900</v>
-      </c>
-      <c r="B9" s="8">
-        <v>2581.92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>1000</v>
-      </c>
-      <c r="B10" s="8">
-        <v>2866.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>1100</v>
-      </c>
-      <c r="B11" s="8">
-        <v>3150.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>1200</v>
-      </c>
-      <c r="B12" s="8">
-        <v>3434.52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>1300</v>
-      </c>
-      <c r="B13" s="8">
-        <v>3718.52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>1400</v>
-      </c>
-      <c r="B14" s="8">
-        <v>4003.23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>1500</v>
-      </c>
-      <c r="B15" s="8">
-        <v>4287.76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>1600</v>
-      </c>
-      <c r="B16" s="8">
-        <v>4572.24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>1700</v>
-      </c>
-      <c r="B17" s="8">
-        <v>4856.5600000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>1800</v>
-      </c>
-      <c r="B18" s="8">
-        <v>5141.16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>1900</v>
-      </c>
-      <c r="B19" s="8">
-        <v>5425.64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>2000</v>
-      </c>
-      <c r="B20" s="8">
-        <v>5709.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>2100</v>
-      </c>
-      <c r="B21" s="8">
-        <v>5994.04</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>2200</v>
-      </c>
-      <c r="B22" s="8">
-        <v>6278.47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>2300</v>
-      </c>
-      <c r="B23" s="8">
-        <v>6562.82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>2400</v>
-      </c>
-      <c r="B24" s="8">
-        <v>6846.96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>2500</v>
-      </c>
-      <c r="B25" s="8">
-        <v>7131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>2600</v>
-      </c>
-      <c r="B26" s="8">
-        <v>7415.33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>2700</v>
-      </c>
-      <c r="B27" s="8">
-        <v>7699.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>2800</v>
-      </c>
-      <c r="B28" s="8">
-        <v>7984.34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>2900</v>
-      </c>
-      <c r="B29" s="8">
-        <v>8269.06</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>3000</v>
-      </c>
-      <c r="B30" s="8">
-        <v>8554.0499999999993</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
-        <v>3100</v>
-      </c>
-      <c r="B31" s="8">
-        <v>8839.0400000000009</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
-        <v>3200</v>
-      </c>
-      <c r="B32" s="8">
-        <v>9124.7999999999993</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
-        <v>3300</v>
-      </c>
-      <c r="B33" s="8">
-        <v>9410.6200000000008</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
-        <v>3400</v>
-      </c>
-      <c r="B34" s="8">
-        <v>9696.9699999999993</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
-        <v>3500</v>
-      </c>
-      <c r="B35" s="8">
-        <v>9983.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
-        <v>3600</v>
-      </c>
-      <c r="B36" s="9">
-        <v>10270.08</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
-        <v>3700</v>
-      </c>
-      <c r="B37" s="9">
-        <v>10556.84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
-        <v>3800</v>
-      </c>
-      <c r="B38" s="9">
-        <v>10843.87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
-        <v>3900</v>
-      </c>
-      <c r="B39" s="9">
-        <v>11131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="8">
-        <v>4000</v>
-      </c>
-      <c r="B40" s="9">
-        <v>11418.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
-        <v>4100</v>
-      </c>
-      <c r="B41" s="9">
-        <v>11705.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
-        <v>4200</v>
-      </c>
-      <c r="B42" s="9">
-        <v>11993.31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
-        <v>4300</v>
-      </c>
-      <c r="B43" s="9">
-        <v>12281.18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
-        <v>4400</v>
-      </c>
-      <c r="B44" s="9">
-        <v>12569.04</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
-        <v>4500</v>
-      </c>
-      <c r="B45" s="9">
-        <v>12856.86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
-        <v>4600</v>
-      </c>
-      <c r="B46" s="9">
-        <v>13144.73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
-        <v>4700</v>
-      </c>
-      <c r="B47" s="9">
-        <v>13432.48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="8">
-        <v>4800</v>
-      </c>
-      <c r="B48" s="9">
-        <v>13720.56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
-        <v>4900</v>
-      </c>
-      <c r="B49" s="9">
-        <v>14008.46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="8">
-        <v>5008</v>
-      </c>
-      <c r="B50" s="9">
-        <v>14320.34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/reference_data.xlsx
+++ b/reference_data.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladimir\Documents\GitHub\SVV_FD_B34\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709DFE4A-E012-4337-B5CF-40D51EBB779C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{610C0FC8-1AC2-4721-BB6E-A6E90D6596E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="78">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -261,6 +263,9 @@
   </si>
   <si>
     <t>Cockpit</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1092,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2420,4 +2425,223 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5055113F-916F-461A-8AEB-286E57BDF448}">
+  <dimension ref="B3:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <f>131*0.0254</f>
+        <v>3.3273999999999999</v>
+      </c>
+      <c r="C3">
+        <v>3.3273999999999999</v>
+      </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <f>C3*D3</f>
+        <v>266.19200000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>3.3273999999999999</v>
+      </c>
+      <c r="D4">
+        <v>102</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E15" si="0">C4*D4</f>
+        <v>339.39479999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>5.4356</v>
+      </c>
+      <c r="D5">
+        <v>83</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>451.15480000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>5.4356</v>
+      </c>
+      <c r="D6">
+        <v>65</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>353.31400000000002</v>
+      </c>
+      <c r="H6">
+        <v>7.4</v>
+      </c>
+      <c r="I6">
+        <v>4157.2</v>
+      </c>
+      <c r="J6">
+        <f>H6*I6</f>
+        <v>30763.279999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>6.3754</v>
+      </c>
+      <c r="D7">
+        <v>90</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>573.78599999999994</v>
+      </c>
+      <c r="H7">
+        <f>J7/I7</f>
+        <v>7.1312540336300687</v>
+      </c>
+      <c r="I7">
+        <f>D17+I6</f>
+        <v>5055</v>
+      </c>
+      <c r="J7">
+        <f>E17+J6</f>
+        <v>36048.489139999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>6.3754</v>
+      </c>
+      <c r="D8">
+        <v>79</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>503.65659999999997</v>
+      </c>
+      <c r="H8">
+        <f>J8/I8</f>
+        <v>7.2436150930960617</v>
+      </c>
+      <c r="I8">
+        <v>1213.8</v>
+      </c>
+      <c r="J8">
+        <v>8792.2999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>7.3151999999999999</v>
+      </c>
+      <c r="D9">
+        <v>104</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>760.7808</v>
+      </c>
+      <c r="H9">
+        <f>J9/I9</f>
+        <v>7.1530100082950474</v>
+      </c>
+      <c r="I9">
+        <f>I8+I7</f>
+        <v>6268.8</v>
+      </c>
+      <c r="J9">
+        <f>J8+J7</f>
+        <v>44840.789139999993</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>7.3151999999999999</v>
+      </c>
+      <c r="D10">
+        <v>120</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>877.82399999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="D12">
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>323.84999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1.8795999999999999</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>8.3693000000000008</v>
+      </c>
+      <c r="D15">
+        <v>99.8</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>835.25614000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <f>E17/D17</f>
+        <v>5.8868446647360226</v>
+      </c>
+      <c r="D17">
+        <f>SUM(D3:D15)</f>
+        <v>897.8</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E3:E15)</f>
+        <v>5285.2091400000008</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>